--- a/Output/June/productivity_TL_valid/productivity_TL_2022-06-03_valid.xlsx
+++ b/Output/June/productivity_TL_valid/productivity_TL_2022-06-03_valid.xlsx
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T4">
-        <v>0.1764705882352941</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -845,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T5">
-        <v>0.1764705882352941</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T9">
-        <v>0.1538461538461539</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2057,13 +2057,13 @@
         <v>10.2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2161,13 +2161,13 @@
         <v>7.9</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2239,13 +2239,13 @@
         <v>6.933333333333334</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>0.1956521739130435</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.1956521739130435</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2459,7 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>47</v>
       </c>
       <c r="D7">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2578,7 +2578,7 @@
         <v>47</v>
       </c>
       <c r="D10">
-        <v>0.1956521739130435</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="E10">
         <v>1</v>
